--- a/10_Tag 10/PA-Arbeitszeiten_1.0_Cvetkovic_David.xlsx
+++ b/10_Tag 10/PA-Arbeitszeiten_1.0_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\10_Tag 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767DAD88-6DCB-496D-A7C6-E76E840ED6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47289E44-F5D7-402A-9965-274F3284CDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>PA-Arbeitszeiten</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>07 h 46 min</t>
+  </si>
+  <si>
+    <t>07 h 55 min</t>
+  </si>
+  <si>
+    <t>07 h 59 min</t>
+  </si>
+  <si>
+    <t>07 h 52 min</t>
+  </si>
+  <si>
+    <t>07 h 53 min</t>
+  </si>
+  <si>
+    <t>08 h 00 min</t>
+  </si>
+  <si>
+    <t>07 h 56 min</t>
+  </si>
+  <si>
+    <t>07 h 54 min</t>
+  </si>
+  <si>
+    <t>06 h 35 min</t>
+  </si>
+  <si>
+    <t>77 h 49 min</t>
   </si>
 </sst>
 </file>
@@ -144,9 +174,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -464,7 +498,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,198 +536,206 @@
       <c r="B5" s="3">
         <v>45341</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.33194444444444443</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.49722222222222223</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.52152777777777781</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.67986111111111114</v>
       </c>
-      <c r="G5" s="6">
-        <v>0.32361111111111113</v>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>45342</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.3354166666666667</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.49791666666666662</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.68125000000000002</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.3298611111111111</v>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>45343</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.50277777777777777</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.68819444444444444</v>
       </c>
-      <c r="G7" s="6">
-        <v>0.33263888888888887</v>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>45344</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.3347222222222222</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.49374999999999997</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.51458333333333328</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.68333333333333324</v>
       </c>
-      <c r="G8" s="6">
-        <v>0.32777777777777778</v>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>45345</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.49652777777777773</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.5180555555555556</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.68680555555555556</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.32847222222222222</v>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>45348</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.47847222222222219</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.49305555555555558</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0.68472222222222223</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.33333333333333331</v>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>45349</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.33402777777777781</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.48125000000000001</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.50416666666666665</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G11" s="6">
-        <v>0.33055555555555555</v>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>45350</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.33749999999999997</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.49861111111111112</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>0.69097222222222221</v>
       </c>
-      <c r="G12" s="6">
-        <v>0.32916666666666666</v>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>45351</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0.3347222222222222</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>0.48402777777777778</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.49791666666666662</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>0.68125000000000002</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.33263888888888887</v>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>45352</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0.33749999999999997</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.48749999999999999</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="4">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="4"/>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
